--- a/TPO - TC-PE44.xlsx
+++ b/TPO - TC-PE44.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facundo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Facultad\Testing de Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B946BF9-2522-4616-9EEB-C94CE9D0BCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F1DE7-C3C8-4D97-8084-3C5195E9454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC - Template " sheetId="2" r:id="rId1"/>
-    <sheet name="TC - Template (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="TC - Template (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="TC - 01 " sheetId="2" r:id="rId1"/>
+    <sheet name="TC - 02" sheetId="3" r:id="rId2"/>
+    <sheet name="TC - 03" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="72">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Facundo Milher</t>
   </si>
   <si>
-    <t>Probar la funcion de Agregar Productos al Carrito</t>
-  </si>
-  <si>
     <t>Javier Fondevila</t>
   </si>
   <si>
@@ -224,6 +221,39 @@
   </si>
   <si>
     <t>El producto no es agregado al carrito, el sistema detecta un error</t>
+  </si>
+  <si>
+    <t>Mail = asd@gmail.com</t>
+  </si>
+  <si>
+    <t>Pass = 123456</t>
+  </si>
+  <si>
+    <t>Mail = faqs@gmail.com</t>
+  </si>
+  <si>
+    <t>Pass = argentina</t>
+  </si>
+  <si>
+    <t>Mail = sanlorenzo@gmail.com</t>
+  </si>
+  <si>
+    <t>Pass = Ciclon123</t>
+  </si>
+  <si>
+    <t>TC-02</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>Probar la funcion de Agregar Productos al Carrito, con mas de dos productos.</t>
+  </si>
+  <si>
+    <t>Probar la funcion de Agregar Productos al Carrito, y posteriormente selecciona la funcion finalizar compra.</t>
+  </si>
+  <si>
+    <t>Probar la funcion de Agregar Productos al Carrito, y posteriormente selecciona la funcion continuar comprando.</t>
   </si>
 </sst>
 </file>
@@ -357,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -524,17 +554,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,7 +657,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -655,9 +674,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -667,16 +683,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -695,12 +701,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -716,80 +716,98 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1111,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1253457-DB78-4436-8A94-6C1298D16957}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,48 +1150,51 @@
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11">
-        <v>2.1</v>
+      <c r="D3" s="49">
+        <v>1</v>
+      </c>
+      <c r="E3" s="50">
+        <v>1</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1193,10 +1214,10 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
@@ -1219,21 +1240,21 @@
     </row>
     <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1243,272 +1264,280 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="D11" s="10">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="G14" s="43" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="G14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="22" t="s">
+      <c r="B15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41" t="s">
+      <c r="J15" s="31"/>
+      <c r="K15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41" t="s">
+      <c r="L15" s="31"/>
+      <c r="M15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="41"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="44" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="44" t="s">
+      <c r="J16" s="33"/>
+      <c r="K16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="44" t="s">
+      <c r="L16" s="33"/>
+      <c r="M16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="48" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="37"/>
+      <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39" t="s">
+      <c r="E18" s="39"/>
+      <c r="G18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="G18" s="16" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="G19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17" t="s">
+      <c r="M19" s="11"/>
+      <c r="N19" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>2</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="G19" s="16" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="G20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
+      <c r="M20" s="11"/>
+      <c r="N20" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>3</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="39" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>4</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="G20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>4</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="40"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="39"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -1519,17 +1548,17 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="40"/>
+      <c r="B22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="39"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -1540,15 +1569,15 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="39" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="39"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -1559,77 +1588,77 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42" t="s">
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="42"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
@@ -1680,6 +1709,8 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1691,7 +1722,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1730,7 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="5" max="5" width="55.5703125" customWidth="1"/>
     <col min="6" max="6" width="2.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
@@ -1711,48 +1742,51 @@
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11">
-        <v>2.1</v>
+      <c r="D3" s="46">
+        <v>2</v>
+      </c>
+      <c r="E3" s="47">
+        <v>2</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1772,10 +1806,10 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
@@ -1798,21 +1832,21 @@
     </row>
     <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1822,272 +1856,280 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="D11" s="10">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="G14" s="43" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="G14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="22" t="s">
+      <c r="B15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41" t="s">
+      <c r="J15" s="31"/>
+      <c r="K15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41" t="s">
+      <c r="L15" s="31"/>
+      <c r="M15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="41"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="44" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="44" t="s">
+      <c r="J16" s="33"/>
+      <c r="K16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="44" t="s">
+      <c r="L16" s="33"/>
+      <c r="M16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="48" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="37"/>
+      <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39" t="s">
+      <c r="E18" s="39"/>
+      <c r="G18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="G18" s="16" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="G19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17" t="s">
+      <c r="M19" s="11"/>
+      <c r="N19" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>2</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="G19" s="16" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="G20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
+      <c r="M20" s="11"/>
+      <c r="N20" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>3</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="39" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>4</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="G20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>4</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="40"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="39"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -2098,17 +2140,17 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="40"/>
+      <c r="B22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="39"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2119,17 +2161,17 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="13">
         <v>6</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="39"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2140,77 +2182,77 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42" t="s">
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="42"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
@@ -2261,6 +2303,8 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2272,7 +2316,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,7 +2324,7 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="2.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
@@ -2293,47 +2337,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="46">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2.1</v>
+      <c r="E3" s="47">
+        <v>3</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2353,10 +2400,10 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
@@ -2379,21 +2426,21 @@
     </row>
     <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2403,272 +2450,280 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="D11" s="10">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="G14" s="43" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="G14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="22" t="s">
+      <c r="B15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41" t="s">
+      <c r="J15" s="31"/>
+      <c r="K15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41" t="s">
+      <c r="L15" s="31"/>
+      <c r="M15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="41"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="44" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="44" t="s">
+      <c r="J16" s="33"/>
+      <c r="K16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="44" t="s">
+      <c r="L16" s="33"/>
+      <c r="M16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="48" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="37"/>
+      <c r="G17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39" t="s">
+      <c r="E18" s="39"/>
+      <c r="G18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="G18" s="16" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="G19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17" t="s">
+      <c r="M19" s="11"/>
+      <c r="N19" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>2</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39" t="s">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="G19" s="16" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="G20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
+      <c r="M20" s="11"/>
+      <c r="N20" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>3</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="39" t="s">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>4</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="G20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>4</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="40"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="39"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -2679,17 +2734,17 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="39"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2700,11 +2755,11 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2715,113 +2770,109 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42" t="s">
+      <c r="L25" s="40"/>
+      <c r="M25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="42"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
@@ -2836,6 +2887,12 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/TPO - TC-PE44.xlsx
+++ b/TPO - TC-PE44.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Facultad\Testing de Apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\TestingAplicaciones-SFW-TPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F1DE7-C3C8-4D97-8084-3C5195E9454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E15EB5-0677-40AC-91BB-17CBF5CBF291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - 01 " sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="68">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Access to Chrome Browser</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -187,24 +184,6 @@
     <t>Selecciona el boton de finalizar compra y realizar pago</t>
   </si>
   <si>
-    <t>Navega al http://demo.guru99.com</t>
-  </si>
-  <si>
-    <t>Se abre el sitio</t>
-  </si>
-  <si>
-    <t>Ingresa usuario y contraseña</t>
-  </si>
-  <si>
-    <t>Se puede ingresar los datos</t>
-  </si>
-  <si>
-    <t>Toca ingresar</t>
-  </si>
-  <si>
-    <t>EL usuario esta logueado</t>
-  </si>
-  <si>
     <t>Visualiza los productos</t>
   </si>
   <si>
@@ -254,6 +233,15 @@
   </si>
   <si>
     <t>Probar la funcion de Agregar Productos al Carrito, y posteriormente selecciona la funcion continuar comprando.</t>
+  </si>
+  <si>
+    <t>Acceso a internet</t>
+  </si>
+  <si>
+    <t>Ingresar a Navegador Web</t>
+  </si>
+  <si>
+    <t>Session iniciada</t>
   </si>
 </sst>
 </file>
@@ -271,6 +259,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -722,6 +711,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,32 +792,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1129,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1253457-DB78-4436-8A94-6C1298D16957}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,49 +1140,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="50"/>
+      <c r="D1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="27">
         <v>1</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="28">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
@@ -1258,13 +1247,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,272 +1261,272 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="10">
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="G14" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31" t="s">
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="32" t="s">
+      <c r="H16" s="40"/>
+      <c r="I16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="32" t="s">
+      <c r="J16" s="40"/>
+      <c r="K16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="33"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
+      <c r="E17" s="44"/>
+      <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="I17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="K17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="M17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="39"/>
+      <c r="B18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="46"/>
       <c r="G18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="K18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="46"/>
       <c r="G19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="K19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="39"/>
+      <c r="B20" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="46"/>
       <c r="G20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="39"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -1551,14 +1540,10 @@
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="39"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -1570,14 +1555,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="39"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -1588,74 +1569,74 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="47"/>
+    </row>
+    <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="40"/>
-    </row>
-    <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -1722,7 +1703,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,49 +1724,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="47"/>
+      <c r="D1" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="49">
         <v>2</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="50">
         <v>2</v>
       </c>
       <c r="F3" s="1"/>
@@ -1850,13 +1831,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1864,272 +1845,272 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="10">
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="G14" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31" t="s">
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="32" t="s">
+      <c r="H16" s="40"/>
+      <c r="I16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="32" t="s">
+      <c r="J16" s="40"/>
+      <c r="K16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="33"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
+      <c r="E17" s="44"/>
+      <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="I17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="K17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="M17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="39"/>
+      <c r="B18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="46"/>
       <c r="G18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="K18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="46"/>
       <c r="G19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="K19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="39"/>
+      <c r="B20" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="46"/>
       <c r="G20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="39"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -2143,14 +2124,10 @@
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="39"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2164,14 +2141,10 @@
       <c r="A23" s="13">
         <v>6</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="39"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2182,74 +2155,74 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="47"/>
+    </row>
+    <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="40"/>
-    </row>
-    <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -2315,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDA0365-DFA0-4473-BB3D-E1FD58BDFD22}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,49 +2310,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="47"/>
+      <c r="D1" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="49">
         <v>3</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="50">
         <v>3</v>
       </c>
       <c r="F3" s="1"/>
@@ -2444,13 +2417,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2458,272 +2431,268 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="10">
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="G14" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31" t="s">
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="32" t="s">
+      <c r="H16" s="40"/>
+      <c r="I16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="32" t="s">
+      <c r="J16" s="40"/>
+      <c r="K16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="33"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
+      <c r="E17" s="44"/>
+      <c r="G17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="I17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="K17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="M17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="39"/>
+      <c r="B18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="46"/>
       <c r="G18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="K18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38" t="s">
+      <c r="B19" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="46"/>
       <c r="G19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="K19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="39"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
       <c r="G20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="39"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -2737,14 +2706,10 @@
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="39"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -2756,10 +2721,10 @@
     </row>
     <row r="23" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -2770,74 +2735,74 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="47"/>
+    </row>
+    <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="40"/>
-    </row>
-    <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -2900,6 +2865,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -3031,7 +3002,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3040,13 +3011,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3064,19 +3038,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>